--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H2">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I2">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J2">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>21.397026</v>
+        <v>0.06661333333333334</v>
       </c>
       <c r="N2">
-        <v>64.191078</v>
+        <v>0.19984</v>
       </c>
       <c r="O2">
-        <v>0.7694665596935515</v>
+        <v>0.01028428344934373</v>
       </c>
       <c r="P2">
-        <v>0.7694665596935515</v>
+        <v>0.01028428344934373</v>
       </c>
       <c r="Q2">
-        <v>669.1133683441341</v>
+        <v>1.442202958328889</v>
       </c>
       <c r="R2">
-        <v>6022.020315097207</v>
+        <v>12.97982662496</v>
       </c>
       <c r="S2">
-        <v>0.7304823883543161</v>
+        <v>0.009548272242291116</v>
       </c>
       <c r="T2">
-        <v>0.7304823883543161</v>
+        <v>0.009548272242291119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H3">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I3">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J3">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.455927</v>
       </c>
       <c r="O3">
-        <v>0.1732850228168956</v>
+        <v>0.7439394054794892</v>
       </c>
       <c r="P3">
-        <v>0.1732850228168955</v>
+        <v>0.7439394054794893</v>
       </c>
       <c r="Q3">
-        <v>150.6853336768532</v>
+        <v>104.3253637149042</v>
       </c>
       <c r="R3">
-        <v>1356.168003091679</v>
+        <v>938.9282734341379</v>
       </c>
       <c r="S3">
-        <v>0.1645057289867549</v>
+        <v>0.6906981911063185</v>
       </c>
       <c r="T3">
-        <v>0.1645057289867549</v>
+        <v>0.6906981911063186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H4">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I4">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J4">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.775825</v>
       </c>
       <c r="O4">
-        <v>0.05724841748955292</v>
+        <v>0.245776311071167</v>
       </c>
       <c r="P4">
-        <v>0.05724841748955292</v>
+        <v>0.245776311071167</v>
       </c>
       <c r="Q4">
-        <v>49.78212630066945</v>
+        <v>34.46611761139444</v>
       </c>
       <c r="R4">
-        <v>448.039136706025</v>
+        <v>310.19505850255</v>
       </c>
       <c r="S4">
-        <v>0.05434798979948977</v>
+        <v>0.228186935956465</v>
       </c>
       <c r="T4">
-        <v>0.05434798979948977</v>
+        <v>0.2281869359564651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H5">
         <v>2.90415</v>
       </c>
       <c r="I5">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J5">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>21.397026</v>
+        <v>0.06661333333333334</v>
       </c>
       <c r="N5">
-        <v>64.191078</v>
+        <v>0.19984</v>
       </c>
       <c r="O5">
-        <v>0.7694665596935515</v>
+        <v>0.01028428344934373</v>
       </c>
       <c r="P5">
-        <v>0.7694665596935515</v>
+        <v>0.01028428344934373</v>
       </c>
       <c r="Q5">
-        <v>20.7133910193</v>
+        <v>0.06448503733333334</v>
       </c>
       <c r="R5">
-        <v>186.4205191737</v>
+        <v>0.5803653360000001</v>
       </c>
       <c r="S5">
-        <v>0.02261315953100664</v>
+        <v>0.0004269306816056054</v>
       </c>
       <c r="T5">
-        <v>0.02261315953100664</v>
+        <v>0.0004269306816056055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H6">
         <v>2.90415</v>
       </c>
       <c r="I6">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J6">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>14.455927</v>
       </c>
       <c r="O6">
-        <v>0.1732850228168956</v>
+        <v>0.7439394054794892</v>
       </c>
       <c r="P6">
-        <v>0.1732850228168955</v>
+        <v>0.7439394054794893</v>
       </c>
       <c r="Q6">
-        <v>4.664686710783334</v>
+        <v>4.664686710783333</v>
       </c>
       <c r="R6">
-        <v>41.98218039705</v>
+        <v>41.98218039704999</v>
       </c>
       <c r="S6">
-        <v>0.005092517427727046</v>
+        <v>0.03088310031700798</v>
       </c>
       <c r="T6">
-        <v>0.005092517427727045</v>
+        <v>0.03088310031700798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H7">
         <v>2.90415</v>
       </c>
       <c r="I7">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J7">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.775825</v>
       </c>
       <c r="O7">
-        <v>0.05724841748955292</v>
+        <v>0.245776311071167</v>
       </c>
       <c r="P7">
-        <v>0.05724841748955292</v>
+        <v>0.245776311071167</v>
       </c>
       <c r="Q7">
         <v>1.541079130416667</v>
@@ -880,10 +880,10 @@
         <v>13.86971217375</v>
       </c>
       <c r="S7">
-        <v>0.001682422168033535</v>
+        <v>0.01020289342713716</v>
       </c>
       <c r="T7">
-        <v>0.001682422168033535</v>
+        <v>0.01020289342713716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>2.102487</v>
       </c>
       <c r="I8">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J8">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>21.397026</v>
+        <v>0.06661333333333334</v>
       </c>
       <c r="N8">
-        <v>64.191078</v>
+        <v>0.19984</v>
       </c>
       <c r="O8">
-        <v>0.7694665596935515</v>
+        <v>0.01028428344934373</v>
       </c>
       <c r="P8">
-        <v>0.7694665596935515</v>
+        <v>0.01028428344934373</v>
       </c>
       <c r="Q8">
-        <v>14.995656334554</v>
+        <v>0.04668455578666668</v>
       </c>
       <c r="R8">
-        <v>134.960907010986</v>
+        <v>0.42016100208</v>
       </c>
       <c r="S8">
-        <v>0.01637101180822876</v>
+        <v>0.0003090805254470067</v>
       </c>
       <c r="T8">
-        <v>0.01637101180822876</v>
+        <v>0.0003090805254470067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.102487</v>
       </c>
       <c r="I9">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J9">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.455927</v>
       </c>
       <c r="O9">
-        <v>0.1732850228168956</v>
+        <v>0.7439394054794892</v>
       </c>
       <c r="P9">
-        <v>0.1732850228168955</v>
+        <v>0.7439394054794893</v>
       </c>
       <c r="Q9">
         <v>3.377044287827667</v>
@@ -1004,10 +1004,10 @@
         <v>30.393398590449</v>
       </c>
       <c r="S9">
-        <v>0.003686776402413633</v>
+        <v>0.02235811405616278</v>
       </c>
       <c r="T9">
-        <v>0.003686776402413632</v>
+        <v>0.02235811405616279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.102487</v>
       </c>
       <c r="I10">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J10">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.775825</v>
       </c>
       <c r="O10">
-        <v>0.05724841748955292</v>
+        <v>0.245776311071167</v>
       </c>
       <c r="P10">
-        <v>0.05724841748955292</v>
+        <v>0.245776311071167</v>
       </c>
       <c r="Q10">
         <v>1.115678886308334</v>
@@ -1066,10 +1066,10 @@
         <v>10.041109976775</v>
       </c>
       <c r="S10">
-        <v>0.001218005522029621</v>
+        <v>0.007386481687564807</v>
       </c>
       <c r="T10">
-        <v>0.001218005522029621</v>
+        <v>0.007386481687564806</v>
       </c>
     </row>
   </sheetData>
